--- a/recommendation/Ir_recommendations.xlsx
+++ b/recommendation/Ir_recommendations.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/recommendation/Ir_recommendations.xlsx
+++ b/recommendation/Ir_recommendations.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,12 +460,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>79.39</t>
+          <t>97.56</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>56.36</t>
+          <t>53.97</t>
         </is>
       </c>
     </row>
@@ -489,43 +489,43 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>43.36</t>
+          <t>44.12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Tm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>41.92</t>
+          <t>38.15</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Zr</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>37.05</t>
+          <t>34.54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tm</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>36.12</t>
+          <t>20.53</t>
         </is>
       </c>
     </row>
@@ -537,91 +537,91 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>18.60</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Zr</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25.56</t>
+          <t>16.46</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nb</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21.98</t>
+          <t>14.24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>11.51</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>Nb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20.41</t>
+          <t>8.36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Ta</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>7.11</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ta</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13.10</t>
+          <t>6.91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Te</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12.16</t>
+          <t>6.91</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11.78</t>
+          <t>6.36</t>
         </is>
       </c>
     </row>
@@ -645,31 +645,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>6.18</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Be</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>5.62</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Te</t>
+          <t>Be</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>5.60</t>
         </is>
       </c>
     </row>
